--- a/FLP/data/results.xlsx
+++ b/FLP/data/results.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\EV-chargers\FLP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E42AF3-F049-4DC4-B198-7864BB9D0BDC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5514D68-00CE-4A36-AC95-9C35255B63E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="1260" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{6E6F0A83-42D8-4719-9A92-9BDB3BA8A6F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6E6F0A83-42D8-4719-9A92-9BDB3BA8A6F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fwd Greedy" sheetId="1" r:id="rId1"/>
-    <sheet name="random LS" sheetId="2" r:id="rId2"/>
+    <sheet name="optimal" sheetId="3" r:id="rId1"/>
+    <sheet name="Fwd Greedy" sheetId="1" r:id="rId2"/>
+    <sheet name="random LS" sheetId="2" r:id="rId3"/>
+    <sheet name="local search" sheetId="4" r:id="rId4"/>
+    <sheet name="bounded LS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="10">
-  <si>
-    <t>Algorithm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>k (max facilities to open)</t>
   </si>
@@ -52,16 +52,70 @@
     <t>r (iterations of random LS)</t>
   </si>
   <si>
-    <t>p (elements to swap in random LS)</t>
+    <t>Run time (seconds)</t>
   </si>
   <si>
-    <t>Run time</t>
+    <t>p (elements to swap)</t>
   </si>
   <si>
-    <t>backGreedy</t>
+    <t>Objective (run 1)</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Objective (run 2)</t>
+  </si>
+  <si>
+    <t>Objective (run 3)</t>
+  </si>
+  <si>
+    <t>Time (run1)</t>
+  </si>
+  <si>
+    <t>Time (run2)</t>
+  </si>
+  <si>
+    <t>Time (run3)</t>
+  </si>
+  <si>
+    <t>Objective (run 4)</t>
+  </si>
+  <si>
+    <t>Time (run4)</t>
+  </si>
+  <si>
+    <t>Objective (run 5)</t>
+  </si>
+  <si>
+    <t>Time (run5)</t>
+  </si>
+  <si>
+    <t>Objective (run 6)</t>
+  </si>
+  <si>
+    <t>Time (run6)</t>
+  </si>
+  <si>
+    <t>Objective (run 7)</t>
+  </si>
+  <si>
+    <t>Time (run7)</t>
+  </si>
+  <si>
+    <t>Objective (run 8)</t>
+  </si>
+  <si>
+    <t>Time (run8)</t>
+  </si>
+  <si>
+    <t>Objective (run 9)</t>
+  </si>
+  <si>
+    <t>Time (run9)</t>
+  </si>
+  <si>
+    <t>Objective (run 10)</t>
+  </si>
+  <si>
+    <t>Time (run10)</t>
   </si>
 </sst>
 </file>
@@ -97,8 +151,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,16 +467,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3460F9-5079-4BC3-9178-41465E25B3E9}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE40D021-BBFA-441A-B2AA-4F1120360D7F}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,142 +497,313 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>10951</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>15944</v>
+      </c>
+      <c r="E3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>75780</v>
+      </c>
+      <c r="E4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>215483</v>
+      </c>
+      <c r="E5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>648802</v>
+      </c>
+      <c r="E6">
+        <v>5534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>1393547</v>
+      </c>
+      <c r="E7">
+        <v>44905</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>14854</v>
+      </c>
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0.15</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>20235</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.15</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>88411</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.15</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>231193</v>
+      </c>
+      <c r="E13">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0.15</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>678372</v>
+      </c>
+      <c r="E14">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>0.15</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1454508</v>
+      </c>
+      <c r="E15">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>19711</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>30295</v>
+      </c>
+      <c r="E19">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2">
-        <v>67378</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>3653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
         <v>100</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
+      <c r="D20">
+        <v>82660</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
         <v>200</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6">
+      <c r="D21">
+        <v>241676</v>
+      </c>
+      <c r="E21">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
         <v>500</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
+      <c r="D22">
+        <v>700720</v>
+      </c>
+      <c r="E22">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
         <v>1000</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
+      <c r="D23">
+        <v>1455581</v>
+      </c>
+      <c r="E23">
+        <v>2179</v>
       </c>
     </row>
   </sheetData>
@@ -579,16 +812,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD05FF6-6CEB-44B1-BD6A-9F92B0F58576}">
-  <dimension ref="A1:H7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3460F9-5079-4BC3-9178-41465E25B3E9}">
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -602,145 +842,2903 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>0.1</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>30</v>
       </c>
       <c r="D2">
+        <v>10951</v>
+      </c>
+      <c r="E2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>19637</v>
+      </c>
+      <c r="E3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>85817</v>
+      </c>
+      <c r="E4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>239643</v>
+      </c>
+      <c r="E5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>704312</v>
+      </c>
+      <c r="E6">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>1462963</v>
+      </c>
+      <c r="E7">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="C10">
         <v>30</v>
       </c>
-      <c r="E2">
-        <v>67378</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2">
-        <v>3653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3">
-        <v>50</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0.1</v>
-      </c>
-      <c r="D4">
+      <c r="D10">
+        <v>14854</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0.15</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>22004</v>
+      </c>
+      <c r="E11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.15</v>
+      </c>
+      <c r="C12">
         <v>100</v>
       </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0.1</v>
-      </c>
-      <c r="D5">
+      <c r="D12">
+        <v>99511</v>
+      </c>
+      <c r="E12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.15</v>
+      </c>
+      <c r="C13">
         <v>200</v>
       </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>0.1</v>
-      </c>
-      <c r="D6">
+      <c r="D13">
+        <v>250810</v>
+      </c>
+      <c r="E13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0.15</v>
+      </c>
+      <c r="C14">
         <v>500</v>
       </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
+      <c r="D14">
+        <v>715844</v>
+      </c>
+      <c r="E14">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>0.15</v>
+      </c>
+      <c r="C15">
         <v>1000</v>
       </c>
-      <c r="F7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>9</v>
+      <c r="D15">
+        <v>1564542</v>
+      </c>
+      <c r="E15">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>19712</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>32421</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>91996</v>
+      </c>
+      <c r="E20">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>259252</v>
+      </c>
+      <c r="E21">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>743189</v>
+      </c>
+      <c r="E22">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>1537159</v>
+      </c>
+      <c r="E23">
+        <v>719</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD05FF6-6CEB-44B1-BD6A-9F92B0F58576}">
+  <dimension ref="A1:Y47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>1000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>10951</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>10951</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>10951</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>10951</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>10951</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>10951</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>10951</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>10951</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>10951</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>10951</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>19637</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>19212</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>19458</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>18782</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>18916</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+      <c r="P3">
+        <v>19479</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>19503</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>18226</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>18271</v>
+      </c>
+      <c r="W3">
+        <v>2</v>
+      </c>
+      <c r="X3">
+        <v>18336</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>85817</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>85112</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>85522</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>85562</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>85209</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>85645</v>
+      </c>
+      <c r="Q4">
+        <v>3</v>
+      </c>
+      <c r="R4">
+        <v>85817</v>
+      </c>
+      <c r="S4">
+        <v>3</v>
+      </c>
+      <c r="T4">
+        <v>85217</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+      <c r="V4">
+        <v>85817</v>
+      </c>
+      <c r="W4">
+        <v>3</v>
+      </c>
+      <c r="X4">
+        <v>84051</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>236978</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>235178</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>235837</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>238419</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5">
+        <v>235822</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>234681</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>238519</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>236952</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>237551</v>
+      </c>
+      <c r="W5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>237185</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>698370</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="H6">
+        <v>690464</v>
+      </c>
+      <c r="I6">
+        <v>16</v>
+      </c>
+      <c r="J6">
+        <v>696327</v>
+      </c>
+      <c r="K6">
+        <v>13</v>
+      </c>
+      <c r="L6">
+        <v>699882</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <v>698597</v>
+      </c>
+      <c r="O6">
+        <v>14</v>
+      </c>
+      <c r="P6">
+        <v>698444</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+      <c r="R6">
+        <v>698283</v>
+      </c>
+      <c r="S6">
+        <v>14</v>
+      </c>
+      <c r="T6">
+        <v>696720</v>
+      </c>
+      <c r="U6">
+        <v>13</v>
+      </c>
+      <c r="V6">
+        <v>688389</v>
+      </c>
+      <c r="W6">
+        <v>14</v>
+      </c>
+      <c r="X6">
+        <v>699566</v>
+      </c>
+      <c r="Y6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1455591</v>
+      </c>
+      <c r="G7">
+        <v>36</v>
+      </c>
+      <c r="H7">
+        <v>1455008</v>
+      </c>
+      <c r="I7">
+        <v>36</v>
+      </c>
+      <c r="J7">
+        <v>1458121</v>
+      </c>
+      <c r="K7">
+        <v>36</v>
+      </c>
+      <c r="L7">
+        <v>1443820</v>
+      </c>
+      <c r="M7">
+        <v>39</v>
+      </c>
+      <c r="N7">
+        <v>1448167</v>
+      </c>
+      <c r="O7">
+        <v>40</v>
+      </c>
+      <c r="P7">
+        <v>1441990</v>
+      </c>
+      <c r="Q7">
+        <v>46</v>
+      </c>
+      <c r="R7">
+        <v>1453230</v>
+      </c>
+      <c r="S7">
+        <v>36</v>
+      </c>
+      <c r="T7">
+        <v>1445263</v>
+      </c>
+      <c r="U7">
+        <v>36</v>
+      </c>
+      <c r="V7">
+        <v>1455537</v>
+      </c>
+      <c r="W7">
+        <v>36</v>
+      </c>
+      <c r="X7">
+        <v>1454063</v>
+      </c>
+      <c r="Y7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.1</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>10951</v>
+      </c>
+      <c r="G10">
+        <v>7</v>
+      </c>
+      <c r="H10">
+        <v>10951</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>10951</v>
+      </c>
+      <c r="K10">
+        <v>7</v>
+      </c>
+      <c r="L10">
+        <v>10951</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>10951</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>10951</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>10951</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>10951</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>10951</v>
+      </c>
+      <c r="W10">
+        <v>7</v>
+      </c>
+      <c r="X10">
+        <v>10951</v>
+      </c>
+      <c r="Y10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0.1</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>10000</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>16944</v>
+      </c>
+      <c r="G11">
+        <v>13</v>
+      </c>
+      <c r="H11">
+        <v>17324</v>
+      </c>
+      <c r="I11">
+        <v>13</v>
+      </c>
+      <c r="J11">
+        <v>16729</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+      <c r="L11">
+        <v>16813</v>
+      </c>
+      <c r="M11">
+        <v>13</v>
+      </c>
+      <c r="N11">
+        <v>17333</v>
+      </c>
+      <c r="O11">
+        <v>13</v>
+      </c>
+      <c r="P11">
+        <v>16973</v>
+      </c>
+      <c r="Q11">
+        <v>13</v>
+      </c>
+      <c r="R11">
+        <v>17714</v>
+      </c>
+      <c r="S11">
+        <v>13</v>
+      </c>
+      <c r="T11">
+        <v>17089</v>
+      </c>
+      <c r="U11">
+        <v>13</v>
+      </c>
+      <c r="V11">
+        <v>16998</v>
+      </c>
+      <c r="W11">
+        <v>13</v>
+      </c>
+      <c r="X11">
+        <v>16733</v>
+      </c>
+      <c r="Y11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>10000</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>82061</v>
+      </c>
+      <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
+        <v>82098</v>
+      </c>
+      <c r="I12">
+        <v>26</v>
+      </c>
+      <c r="J12">
+        <v>84066</v>
+      </c>
+      <c r="K12">
+        <v>25</v>
+      </c>
+      <c r="L12">
+        <v>84213</v>
+      </c>
+      <c r="M12">
+        <v>27</v>
+      </c>
+      <c r="N12">
+        <v>82283</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>82753</v>
+      </c>
+      <c r="Q12">
+        <v>25</v>
+      </c>
+      <c r="R12">
+        <v>82648</v>
+      </c>
+      <c r="S12">
+        <v>26</v>
+      </c>
+      <c r="T12">
+        <v>81967</v>
+      </c>
+      <c r="U12">
+        <v>26</v>
+      </c>
+      <c r="V12">
+        <v>84261</v>
+      </c>
+      <c r="W12">
+        <v>26</v>
+      </c>
+      <c r="X12">
+        <v>82463</v>
+      </c>
+      <c r="Y12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.1</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>227416</v>
+      </c>
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13">
+        <v>228273</v>
+      </c>
+      <c r="I13">
+        <v>57</v>
+      </c>
+      <c r="J13">
+        <v>231289</v>
+      </c>
+      <c r="K13">
+        <v>50</v>
+      </c>
+      <c r="L13">
+        <v>228201</v>
+      </c>
+      <c r="M13">
+        <v>51</v>
+      </c>
+      <c r="N13">
+        <v>228065</v>
+      </c>
+      <c r="O13">
+        <v>50</v>
+      </c>
+      <c r="P13">
+        <v>227834</v>
+      </c>
+      <c r="Q13">
+        <v>52</v>
+      </c>
+      <c r="R13">
+        <v>231287</v>
+      </c>
+      <c r="S13">
+        <v>53</v>
+      </c>
+      <c r="T13">
+        <v>229275</v>
+      </c>
+      <c r="U13">
+        <v>52</v>
+      </c>
+      <c r="V13">
+        <v>229788</v>
+      </c>
+      <c r="W13">
+        <v>53</v>
+      </c>
+      <c r="X13">
+        <v>228339</v>
+      </c>
+      <c r="Y13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>10000</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>681422</v>
+      </c>
+      <c r="G14">
+        <v>143</v>
+      </c>
+      <c r="H14">
+        <v>678955</v>
+      </c>
+      <c r="I14">
+        <v>132</v>
+      </c>
+      <c r="J14">
+        <v>675790</v>
+      </c>
+      <c r="K14">
+        <v>136</v>
+      </c>
+      <c r="L14">
+        <v>681557</v>
+      </c>
+      <c r="M14">
+        <v>133</v>
+      </c>
+      <c r="N14">
+        <v>680001</v>
+      </c>
+      <c r="O14">
+        <v>130</v>
+      </c>
+      <c r="P14">
+        <v>682919</v>
+      </c>
+      <c r="Q14">
+        <v>139</v>
+      </c>
+      <c r="R14">
+        <v>681262</v>
+      </c>
+      <c r="S14">
+        <v>139</v>
+      </c>
+      <c r="T14">
+        <v>679474</v>
+      </c>
+      <c r="U14">
+        <v>137</v>
+      </c>
+      <c r="V14">
+        <v>681566</v>
+      </c>
+      <c r="W14">
+        <v>145</v>
+      </c>
+      <c r="X14">
+        <v>689522</v>
+      </c>
+      <c r="Y14">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>0.1</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>10000</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1432911</v>
+      </c>
+      <c r="G15">
+        <v>422</v>
+      </c>
+      <c r="H15">
+        <v>1434609</v>
+      </c>
+      <c r="I15">
+        <v>396</v>
+      </c>
+      <c r="J15">
+        <v>1431627</v>
+      </c>
+      <c r="K15">
+        <v>489</v>
+      </c>
+      <c r="L15">
+        <v>1438301</v>
+      </c>
+      <c r="M15">
+        <v>389</v>
+      </c>
+      <c r="N15">
+        <v>1439193</v>
+      </c>
+      <c r="O15">
+        <v>391</v>
+      </c>
+      <c r="P15">
+        <v>1432132</v>
+      </c>
+      <c r="Q15">
+        <v>393</v>
+      </c>
+      <c r="R15">
+        <v>1421671</v>
+      </c>
+      <c r="S15">
+        <v>409</v>
+      </c>
+      <c r="T15">
+        <v>1432178</v>
+      </c>
+      <c r="U15">
+        <v>418</v>
+      </c>
+      <c r="V15">
+        <v>1419709</v>
+      </c>
+      <c r="W15">
+        <v>430</v>
+      </c>
+      <c r="X15">
+        <v>1430625</v>
+      </c>
+      <c r="Y15">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>0.1</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>1000</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>10951</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>10951</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>10951</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>10951</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>10951</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>10951</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>10951</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>10951</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>10951</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>10951</v>
+      </c>
+      <c r="Y18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>0.1</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>1000</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>19637</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>19563</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>19561</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>19637</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>19637</v>
+      </c>
+      <c r="O19">
+        <v>2</v>
+      </c>
+      <c r="P19">
+        <v>19637</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>18854</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>19458</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>19637</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>19637</v>
+      </c>
+      <c r="Y19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>85817</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>85817</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>85817</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>85817</v>
+      </c>
+      <c r="M20">
+        <v>3</v>
+      </c>
+      <c r="N20">
+        <v>85817</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>85817</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>85817</v>
+      </c>
+      <c r="S20">
+        <v>3</v>
+      </c>
+      <c r="T20">
+        <v>85817</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>85817</v>
+      </c>
+      <c r="W20">
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <v>85817</v>
+      </c>
+      <c r="Y20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>239644</v>
+      </c>
+      <c r="G21">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>239644</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
+        <v>238692</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21">
+        <v>239644</v>
+      </c>
+      <c r="M21">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>239644</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <v>239644</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>239218</v>
+      </c>
+      <c r="S21">
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <v>239644</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <v>238290</v>
+      </c>
+      <c r="W21">
+        <v>6</v>
+      </c>
+      <c r="X21">
+        <v>239644</v>
+      </c>
+      <c r="Y21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0.1</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>704312</v>
+      </c>
+      <c r="G22">
+        <v>14</v>
+      </c>
+      <c r="H22">
+        <v>704312</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
+      <c r="J22">
+        <v>704312</v>
+      </c>
+      <c r="K22">
+        <v>13</v>
+      </c>
+      <c r="L22">
+        <v>704312</v>
+      </c>
+      <c r="M22">
+        <v>13</v>
+      </c>
+      <c r="N22">
+        <v>704312</v>
+      </c>
+      <c r="O22">
+        <v>13</v>
+      </c>
+      <c r="P22">
+        <v>704312</v>
+      </c>
+      <c r="Q22">
+        <v>15</v>
+      </c>
+      <c r="R22">
+        <v>702293</v>
+      </c>
+      <c r="S22">
+        <v>16</v>
+      </c>
+      <c r="T22">
+        <v>704312</v>
+      </c>
+      <c r="U22">
+        <v>17</v>
+      </c>
+      <c r="V22">
+        <v>701082</v>
+      </c>
+      <c r="W22">
+        <v>16</v>
+      </c>
+      <c r="X22">
+        <v>704312</v>
+      </c>
+      <c r="Y22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0.1</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>1000</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1462963</v>
+      </c>
+      <c r="G23">
+        <v>39</v>
+      </c>
+      <c r="H23">
+        <v>1462963</v>
+      </c>
+      <c r="I23">
+        <v>37</v>
+      </c>
+      <c r="J23">
+        <v>1462963</v>
+      </c>
+      <c r="K23">
+        <v>36</v>
+      </c>
+      <c r="L23">
+        <v>1462963</v>
+      </c>
+      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="N23">
+        <v>1462963</v>
+      </c>
+      <c r="O23">
+        <v>36</v>
+      </c>
+      <c r="P23">
+        <v>1462963</v>
+      </c>
+      <c r="Q23">
+        <v>39</v>
+      </c>
+      <c r="R23">
+        <v>1462963</v>
+      </c>
+      <c r="S23">
+        <v>40</v>
+      </c>
+      <c r="T23">
+        <v>1462963</v>
+      </c>
+      <c r="U23">
+        <v>45</v>
+      </c>
+      <c r="V23">
+        <v>1462963</v>
+      </c>
+      <c r="W23">
+        <v>47</v>
+      </c>
+      <c r="X23">
+        <v>1461955</v>
+      </c>
+      <c r="Y23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>10000</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>10951</v>
+      </c>
+      <c r="G26" s="1">
+        <v>8</v>
+      </c>
+      <c r="H26">
+        <v>10951</v>
+      </c>
+      <c r="I26">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>10951</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="L26">
+        <v>10951</v>
+      </c>
+      <c r="M26">
+        <v>9</v>
+      </c>
+      <c r="N26">
+        <v>10951</v>
+      </c>
+      <c r="O26">
+        <v>8</v>
+      </c>
+      <c r="P26">
+        <v>10951</v>
+      </c>
+      <c r="Q26">
+        <v>8</v>
+      </c>
+      <c r="R26">
+        <v>10951</v>
+      </c>
+      <c r="S26">
+        <v>8</v>
+      </c>
+      <c r="T26">
+        <v>10951</v>
+      </c>
+      <c r="U26">
+        <v>8</v>
+      </c>
+      <c r="V26">
+        <v>10951</v>
+      </c>
+      <c r="W26">
+        <v>8</v>
+      </c>
+      <c r="X26">
+        <v>10951</v>
+      </c>
+      <c r="Y26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>50</v>
+      </c>
+      <c r="B27">
+        <v>0.1</v>
+      </c>
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27">
+        <v>10000</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>18861</v>
+      </c>
+      <c r="G27" s="1">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>18394</v>
+      </c>
+      <c r="I27">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>18963</v>
+      </c>
+      <c r="K27">
+        <v>14</v>
+      </c>
+      <c r="L27">
+        <v>18250</v>
+      </c>
+      <c r="M27">
+        <v>14</v>
+      </c>
+      <c r="N27">
+        <v>18254</v>
+      </c>
+      <c r="O27">
+        <v>14</v>
+      </c>
+      <c r="P27">
+        <v>18158</v>
+      </c>
+      <c r="Q27">
+        <v>14</v>
+      </c>
+      <c r="R27">
+        <v>17960</v>
+      </c>
+      <c r="S27">
+        <v>14</v>
+      </c>
+      <c r="T27">
+        <v>18383</v>
+      </c>
+      <c r="U27">
+        <v>14</v>
+      </c>
+      <c r="V27">
+        <v>18862</v>
+      </c>
+      <c r="W27">
+        <v>14</v>
+      </c>
+      <c r="X27">
+        <v>18092</v>
+      </c>
+      <c r="Y27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>50</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
+      <c r="D28">
+        <v>10000</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>85631</v>
+      </c>
+      <c r="G28" s="1">
+        <v>28</v>
+      </c>
+      <c r="H28">
+        <v>85548</v>
+      </c>
+      <c r="I28">
+        <v>28</v>
+      </c>
+      <c r="J28">
+        <v>85766</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
+      </c>
+      <c r="L28">
+        <v>85817</v>
+      </c>
+      <c r="M28">
+        <v>27</v>
+      </c>
+      <c r="N28">
+        <v>85817</v>
+      </c>
+      <c r="O28">
+        <v>28</v>
+      </c>
+      <c r="P28">
+        <v>85783</v>
+      </c>
+      <c r="Q28">
+        <v>26</v>
+      </c>
+      <c r="R28">
+        <v>85817</v>
+      </c>
+      <c r="S28">
+        <v>27</v>
+      </c>
+      <c r="T28">
+        <v>85817</v>
+      </c>
+      <c r="U28">
+        <v>26</v>
+      </c>
+      <c r="V28">
+        <v>85817</v>
+      </c>
+      <c r="W28">
+        <v>27</v>
+      </c>
+      <c r="X28">
+        <v>85508</v>
+      </c>
+      <c r="Y28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>50</v>
+      </c>
+      <c r="B29">
+        <v>0.1</v>
+      </c>
+      <c r="C29">
+        <v>200</v>
+      </c>
+      <c r="D29">
+        <v>10000</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>238496</v>
+      </c>
+      <c r="G29" s="1">
+        <v>53</v>
+      </c>
+      <c r="H29">
+        <v>238445</v>
+      </c>
+      <c r="I29">
+        <v>52</v>
+      </c>
+      <c r="J29">
+        <v>239644</v>
+      </c>
+      <c r="K29">
+        <v>51</v>
+      </c>
+      <c r="L29">
+        <v>238205</v>
+      </c>
+      <c r="M29">
+        <v>51</v>
+      </c>
+      <c r="N29">
+        <v>239644</v>
+      </c>
+      <c r="O29">
+        <v>52</v>
+      </c>
+      <c r="P29">
+        <v>236277</v>
+      </c>
+      <c r="Q29">
+        <v>54</v>
+      </c>
+      <c r="R29">
+        <v>235415</v>
+      </c>
+      <c r="S29">
+        <v>51</v>
+      </c>
+      <c r="T29">
+        <v>235788</v>
+      </c>
+      <c r="U29">
+        <v>51</v>
+      </c>
+      <c r="V29">
+        <v>239263</v>
+      </c>
+      <c r="W29">
+        <v>54</v>
+      </c>
+      <c r="X29">
+        <v>238460</v>
+      </c>
+      <c r="Y29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>50</v>
+      </c>
+      <c r="B30">
+        <v>0.1</v>
+      </c>
+      <c r="C30">
+        <v>500</v>
+      </c>
+      <c r="D30">
+        <v>10000</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>704312</v>
+      </c>
+      <c r="G30" s="1">
+        <v>138</v>
+      </c>
+      <c r="H30">
+        <v>703863</v>
+      </c>
+      <c r="I30">
+        <v>137</v>
+      </c>
+      <c r="J30">
+        <v>700125</v>
+      </c>
+      <c r="K30">
+        <v>124</v>
+      </c>
+      <c r="L30">
+        <v>699595</v>
+      </c>
+      <c r="M30">
+        <v>136</v>
+      </c>
+      <c r="N30">
+        <v>702031</v>
+      </c>
+      <c r="O30">
+        <v>138</v>
+      </c>
+      <c r="P30">
+        <v>698809</v>
+      </c>
+      <c r="Q30">
+        <v>132</v>
+      </c>
+      <c r="R30">
+        <v>702583</v>
+      </c>
+      <c r="S30">
+        <v>136</v>
+      </c>
+      <c r="T30">
+        <v>700849</v>
+      </c>
+      <c r="U30">
+        <v>132</v>
+      </c>
+      <c r="V30">
+        <v>703000</v>
+      </c>
+      <c r="W30">
+        <v>137</v>
+      </c>
+      <c r="X30">
+        <v>694821</v>
+      </c>
+      <c r="Y30">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>50</v>
+      </c>
+      <c r="B31">
+        <v>0.1</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>10000</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1457871</v>
+      </c>
+      <c r="G31" s="1">
+        <v>389</v>
+      </c>
+      <c r="H31">
+        <v>1462963</v>
+      </c>
+      <c r="I31">
+        <v>391</v>
+      </c>
+      <c r="J31">
+        <v>1456593</v>
+      </c>
+      <c r="K31">
+        <v>368</v>
+      </c>
+      <c r="L31">
+        <v>1456514</v>
+      </c>
+      <c r="M31">
+        <v>383</v>
+      </c>
+      <c r="N31">
+        <v>1461198</v>
+      </c>
+      <c r="O31">
+        <v>393</v>
+      </c>
+      <c r="P31">
+        <v>1461623</v>
+      </c>
+      <c r="Q31">
+        <v>368</v>
+      </c>
+      <c r="R31">
+        <v>1462963</v>
+      </c>
+      <c r="S31">
+        <v>378</v>
+      </c>
+      <c r="T31">
+        <v>1460575</v>
+      </c>
+      <c r="U31">
+        <v>425</v>
+      </c>
+      <c r="V31">
+        <v>1453652</v>
+      </c>
+      <c r="W31">
+        <v>425</v>
+      </c>
+      <c r="X31">
+        <v>1460081</v>
+      </c>
+      <c r="Y31">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>50</v>
+      </c>
+      <c r="B34">
+        <v>0.1</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>1000</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>50</v>
+      </c>
+      <c r="B35">
+        <v>0.1</v>
+      </c>
+      <c r="C35">
+        <v>50</v>
+      </c>
+      <c r="D35">
+        <v>1000</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>50</v>
+      </c>
+      <c r="B36">
+        <v>0.1</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
+        <v>1000</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>0.1</v>
+      </c>
+      <c r="C37">
+        <v>200</v>
+      </c>
+      <c r="D37">
+        <v>1000</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>50</v>
+      </c>
+      <c r="B38">
+        <v>0.1</v>
+      </c>
+      <c r="C38">
+        <v>500</v>
+      </c>
+      <c r="D38">
+        <v>1000</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>50</v>
+      </c>
+      <c r="B39">
+        <v>0.1</v>
+      </c>
+      <c r="C39">
+        <v>1000</v>
+      </c>
+      <c r="D39">
+        <v>1000</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0.1</v>
+      </c>
+      <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>10000</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>0.1</v>
+      </c>
+      <c r="C43">
+        <v>50</v>
+      </c>
+      <c r="D43">
+        <v>10000</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>50</v>
+      </c>
+      <c r="B44">
+        <v>0.1</v>
+      </c>
+      <c r="C44">
+        <v>100</v>
+      </c>
+      <c r="D44">
+        <v>10000</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.1</v>
+      </c>
+      <c r="C45">
+        <v>200</v>
+      </c>
+      <c r="D45">
+        <v>10000</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>0.1</v>
+      </c>
+      <c r="C46">
+        <v>500</v>
+      </c>
+      <c r="D46">
+        <v>10000</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>50</v>
+      </c>
+      <c r="B47">
+        <v>0.1</v>
+      </c>
+      <c r="C47">
+        <v>1000</v>
+      </c>
+      <c r="D47">
+        <v>10000</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF35473-9742-4B22-9105-9EEFA5B1D1F2}">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2">
+        <v>0.1</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>10951</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>0.1</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>19637</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>85817</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+      <c r="C5">
+        <v>200</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>239644</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>704312</v>
+      </c>
+      <c r="F6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>0.1</v>
+      </c>
+      <c r="C7">
+        <v>1000</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1462963</v>
+      </c>
+      <c r="F7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>0.15</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>14854</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11">
+        <v>0.15</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>22004</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0.15</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>99511</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13">
+        <v>0.15</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>250810</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>0.15</v>
+      </c>
+      <c r="C14">
+        <v>500</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>715844</v>
+      </c>
+      <c r="F14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>0.15</v>
+      </c>
+      <c r="C15">
+        <v>1000</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1564542</v>
+      </c>
+      <c r="F15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>19712</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19">
+        <v>0.2</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>32421</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20">
+        <v>0.2</v>
+      </c>
+      <c r="C20">
+        <v>100</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>91996</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21">
+        <v>0.2</v>
+      </c>
+      <c r="C21">
+        <v>200</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>259252</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>0.2</v>
+      </c>
+      <c r="C22">
+        <v>500</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>743189</v>
+      </c>
+      <c r="F22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0.2</v>
+      </c>
+      <c r="C23">
+        <v>1000</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1537159</v>
+      </c>
+      <c r="F23">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDFBF50-F5CB-416B-BB19-A3D70E7A2640}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FLP/data/results.xlsx
+++ b/FLP/data/results.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\EV-chargers\FLP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5514D68-00CE-4A36-AC95-9C35255B63E1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDB5E32C-E4D3-4B61-87BA-188BD3977426}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{6E6F0A83-42D8-4719-9A92-9BDB3BA8A6F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{6E6F0A83-42D8-4719-9A92-9BDB3BA8A6F9}"/>
   </bookViews>
   <sheets>
     <sheet name="optimal" sheetId="3" r:id="rId1"/>
     <sheet name="Fwd Greedy" sheetId="1" r:id="rId2"/>
     <sheet name="random LS" sheetId="2" r:id="rId3"/>
     <sheet name="local search" sheetId="4" r:id="rId4"/>
-    <sheet name="bounded LS" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -471,7 +470,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +815,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I2" sqref="I2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD05FF6-6CEB-44B1-BD6A-9F92B0F58576}">
   <dimension ref="A1:Y47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="X50" sqref="X50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3118,7 +3117,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>50</v>
       </c>
@@ -3134,8 +3133,68 @@
       <c r="E34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>10951</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>10951</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>10951</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>10951</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>10951</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>10951</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>10951</v>
+      </c>
+      <c r="S34">
+        <v>1</v>
+      </c>
+      <c r="T34">
+        <v>10951</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>10951</v>
+      </c>
+      <c r="W34">
+        <v>1</v>
+      </c>
+      <c r="X34">
+        <v>10951</v>
+      </c>
+      <c r="Y34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>50</v>
       </c>
@@ -3151,8 +3210,68 @@
       <c r="E35">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>19637</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35">
+        <v>19637</v>
+      </c>
+      <c r="I35">
+        <v>2</v>
+      </c>
+      <c r="J35">
+        <v>19637</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>19637</v>
+      </c>
+      <c r="M35">
+        <v>2</v>
+      </c>
+      <c r="N35">
+        <v>19637</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>19637</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>19637</v>
+      </c>
+      <c r="S35">
+        <v>2</v>
+      </c>
+      <c r="T35">
+        <v>19637</v>
+      </c>
+      <c r="U35">
+        <v>2</v>
+      </c>
+      <c r="V35">
+        <v>19637</v>
+      </c>
+      <c r="W35">
+        <v>2</v>
+      </c>
+      <c r="X35">
+        <v>19637</v>
+      </c>
+      <c r="Y35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>50</v>
       </c>
@@ -3168,8 +3287,68 @@
       <c r="E36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>85817</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36">
+        <v>85817</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>85817</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>85817</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>85817</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+      <c r="P36">
+        <v>85817</v>
+      </c>
+      <c r="Q36">
+        <v>3</v>
+      </c>
+      <c r="R36">
+        <v>85817</v>
+      </c>
+      <c r="S36">
+        <v>3</v>
+      </c>
+      <c r="T36">
+        <v>85817</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>85817</v>
+      </c>
+      <c r="W36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>85817</v>
+      </c>
+      <c r="Y36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>50</v>
       </c>
@@ -3185,8 +3364,68 @@
       <c r="E37">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>239644</v>
+      </c>
+      <c r="G37">
+        <v>6</v>
+      </c>
+      <c r="H37">
+        <v>239644</v>
+      </c>
+      <c r="I37">
+        <v>6</v>
+      </c>
+      <c r="J37">
+        <v>239644</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>239644</v>
+      </c>
+      <c r="M37">
+        <v>6</v>
+      </c>
+      <c r="N37">
+        <v>239644</v>
+      </c>
+      <c r="O37">
+        <v>6</v>
+      </c>
+      <c r="P37">
+        <v>239644</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>239644</v>
+      </c>
+      <c r="S37">
+        <v>6</v>
+      </c>
+      <c r="T37">
+        <v>239644</v>
+      </c>
+      <c r="U37">
+        <v>6</v>
+      </c>
+      <c r="V37">
+        <v>239644</v>
+      </c>
+      <c r="W37">
+        <v>6</v>
+      </c>
+      <c r="X37">
+        <v>239644</v>
+      </c>
+      <c r="Y37">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>50</v>
       </c>
@@ -3202,8 +3441,68 @@
       <c r="E38">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>704312</v>
+      </c>
+      <c r="G38">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>704312</v>
+      </c>
+      <c r="I38">
+        <v>14</v>
+      </c>
+      <c r="J38">
+        <v>704312</v>
+      </c>
+      <c r="K38">
+        <v>15</v>
+      </c>
+      <c r="L38">
+        <v>704312</v>
+      </c>
+      <c r="M38">
+        <v>15</v>
+      </c>
+      <c r="N38">
+        <v>704312</v>
+      </c>
+      <c r="O38">
+        <v>15</v>
+      </c>
+      <c r="P38">
+        <v>704312</v>
+      </c>
+      <c r="Q38">
+        <v>15</v>
+      </c>
+      <c r="R38">
+        <v>704312</v>
+      </c>
+      <c r="S38">
+        <v>14</v>
+      </c>
+      <c r="T38">
+        <v>704312</v>
+      </c>
+      <c r="U38">
+        <v>14</v>
+      </c>
+      <c r="V38">
+        <v>704312</v>
+      </c>
+      <c r="W38">
+        <v>15</v>
+      </c>
+      <c r="X38">
+        <v>704312</v>
+      </c>
+      <c r="Y38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>50</v>
       </c>
@@ -3219,8 +3518,68 @@
       <c r="E39">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1462963</v>
+      </c>
+      <c r="G39">
+        <v>46</v>
+      </c>
+      <c r="H39">
+        <v>1462963</v>
+      </c>
+      <c r="I39">
+        <v>45</v>
+      </c>
+      <c r="J39">
+        <v>1462963</v>
+      </c>
+      <c r="K39">
+        <v>45</v>
+      </c>
+      <c r="L39">
+        <v>1462963</v>
+      </c>
+      <c r="M39">
+        <v>44</v>
+      </c>
+      <c r="N39">
+        <v>1462963</v>
+      </c>
+      <c r="O39">
+        <v>48</v>
+      </c>
+      <c r="P39">
+        <v>1462963</v>
+      </c>
+      <c r="Q39">
+        <v>50</v>
+      </c>
+      <c r="R39">
+        <v>1462963</v>
+      </c>
+      <c r="S39">
+        <v>47</v>
+      </c>
+      <c r="T39">
+        <v>1462963</v>
+      </c>
+      <c r="U39">
+        <v>50</v>
+      </c>
+      <c r="V39">
+        <v>1462963</v>
+      </c>
+      <c r="W39">
+        <v>43</v>
+      </c>
+      <c r="X39">
+        <v>1462963</v>
+      </c>
+      <c r="Y39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>50</v>
       </c>
@@ -3236,8 +3595,68 @@
       <c r="E42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>10951</v>
+      </c>
+      <c r="G42">
+        <v>9</v>
+      </c>
+      <c r="H42">
+        <v>10951</v>
+      </c>
+      <c r="I42">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>10951</v>
+      </c>
+      <c r="K42">
+        <v>9</v>
+      </c>
+      <c r="L42">
+        <v>10951</v>
+      </c>
+      <c r="M42">
+        <v>9</v>
+      </c>
+      <c r="N42">
+        <v>10951</v>
+      </c>
+      <c r="O42">
+        <v>9</v>
+      </c>
+      <c r="P42">
+        <v>10951</v>
+      </c>
+      <c r="Q42">
+        <v>9</v>
+      </c>
+      <c r="R42">
+        <v>10951</v>
+      </c>
+      <c r="S42">
+        <v>9</v>
+      </c>
+      <c r="T42">
+        <v>10951</v>
+      </c>
+      <c r="U42">
+        <v>9</v>
+      </c>
+      <c r="V42">
+        <v>10951</v>
+      </c>
+      <c r="W42">
+        <v>9</v>
+      </c>
+      <c r="X42">
+        <v>10951</v>
+      </c>
+      <c r="Y42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>50</v>
       </c>
@@ -3253,8 +3672,68 @@
       <c r="E43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>19252</v>
+      </c>
+      <c r="G43">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>19137</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+      <c r="J43">
+        <v>19419</v>
+      </c>
+      <c r="K43">
+        <v>15</v>
+      </c>
+      <c r="L43">
+        <v>18825</v>
+      </c>
+      <c r="M43">
+        <v>15</v>
+      </c>
+      <c r="N43">
+        <v>18692</v>
+      </c>
+      <c r="O43">
+        <v>15</v>
+      </c>
+      <c r="P43">
+        <v>19283</v>
+      </c>
+      <c r="Q43">
+        <v>15</v>
+      </c>
+      <c r="R43">
+        <v>19542</v>
+      </c>
+      <c r="S43">
+        <v>15</v>
+      </c>
+      <c r="T43">
+        <v>19491</v>
+      </c>
+      <c r="U43">
+        <v>15</v>
+      </c>
+      <c r="V43">
+        <v>19390</v>
+      </c>
+      <c r="W43">
+        <v>15</v>
+      </c>
+      <c r="X43">
+        <v>19637</v>
+      </c>
+      <c r="Y43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>50</v>
       </c>
@@ -3270,8 +3749,68 @@
       <c r="E44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>85817</v>
+      </c>
+      <c r="G44">
+        <v>28</v>
+      </c>
+      <c r="H44">
+        <v>85817</v>
+      </c>
+      <c r="I44">
+        <v>28</v>
+      </c>
+      <c r="J44">
+        <v>85817</v>
+      </c>
+      <c r="K44">
+        <v>28</v>
+      </c>
+      <c r="L44">
+        <v>85817</v>
+      </c>
+      <c r="M44">
+        <v>28</v>
+      </c>
+      <c r="N44">
+        <v>85817</v>
+      </c>
+      <c r="O44">
+        <v>28</v>
+      </c>
+      <c r="P44">
+        <v>85817</v>
+      </c>
+      <c r="Q44">
+        <v>28</v>
+      </c>
+      <c r="R44">
+        <v>85817</v>
+      </c>
+      <c r="S44">
+        <v>28</v>
+      </c>
+      <c r="T44">
+        <v>85817</v>
+      </c>
+      <c r="U44">
+        <v>28</v>
+      </c>
+      <c r="V44">
+        <v>85817</v>
+      </c>
+      <c r="W44">
+        <v>28</v>
+      </c>
+      <c r="X44">
+        <v>85817</v>
+      </c>
+      <c r="Y44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>50</v>
       </c>
@@ -3287,8 +3826,68 @@
       <c r="E45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>239644</v>
+      </c>
+      <c r="G45">
+        <v>53</v>
+      </c>
+      <c r="H45">
+        <v>239644</v>
+      </c>
+      <c r="I45">
+        <v>56</v>
+      </c>
+      <c r="J45">
+        <v>239644</v>
+      </c>
+      <c r="K45">
+        <v>56</v>
+      </c>
+      <c r="L45">
+        <v>239644</v>
+      </c>
+      <c r="M45">
+        <v>56</v>
+      </c>
+      <c r="N45">
+        <v>239644</v>
+      </c>
+      <c r="O45">
+        <v>57</v>
+      </c>
+      <c r="P45">
+        <v>239644</v>
+      </c>
+      <c r="Q45">
+        <v>56</v>
+      </c>
+      <c r="R45">
+        <v>239644</v>
+      </c>
+      <c r="S45">
+        <v>57</v>
+      </c>
+      <c r="T45">
+        <v>239644</v>
+      </c>
+      <c r="U45">
+        <v>56</v>
+      </c>
+      <c r="V45">
+        <v>239644</v>
+      </c>
+      <c r="W45">
+        <v>56</v>
+      </c>
+      <c r="X45">
+        <v>239644</v>
+      </c>
+      <c r="Y45">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>50</v>
       </c>
@@ -3304,8 +3903,68 @@
       <c r="E46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>704312</v>
+      </c>
+      <c r="G46">
+        <v>159</v>
+      </c>
+      <c r="H46">
+        <v>704312</v>
+      </c>
+      <c r="I46">
+        <v>156</v>
+      </c>
+      <c r="J46">
+        <v>704312</v>
+      </c>
+      <c r="K46">
+        <v>150</v>
+      </c>
+      <c r="L46">
+        <v>704312</v>
+      </c>
+      <c r="M46">
+        <v>150</v>
+      </c>
+      <c r="N46">
+        <v>704312</v>
+      </c>
+      <c r="O46">
+        <v>151</v>
+      </c>
+      <c r="P46">
+        <v>704312</v>
+      </c>
+      <c r="Q46">
+        <v>139</v>
+      </c>
+      <c r="R46">
+        <v>704312</v>
+      </c>
+      <c r="S46">
+        <v>150</v>
+      </c>
+      <c r="T46">
+        <v>704312</v>
+      </c>
+      <c r="U46">
+        <v>149</v>
+      </c>
+      <c r="V46">
+        <v>704312</v>
+      </c>
+      <c r="W46">
+        <v>149</v>
+      </c>
+      <c r="X46">
+        <v>704312</v>
+      </c>
+      <c r="Y46">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>50</v>
       </c>
@@ -3320,6 +3979,66 @@
       </c>
       <c r="E47">
         <v>3</v>
+      </c>
+      <c r="F47">
+        <v>1459952</v>
+      </c>
+      <c r="G47">
+        <v>423</v>
+      </c>
+      <c r="H47">
+        <v>1462963</v>
+      </c>
+      <c r="I47">
+        <v>421</v>
+      </c>
+      <c r="J47">
+        <v>1462963</v>
+      </c>
+      <c r="K47">
+        <v>404</v>
+      </c>
+      <c r="L47">
+        <v>1461617</v>
+      </c>
+      <c r="M47">
+        <v>405</v>
+      </c>
+      <c r="N47">
+        <v>1462963</v>
+      </c>
+      <c r="O47">
+        <v>404</v>
+      </c>
+      <c r="P47">
+        <v>1462963</v>
+      </c>
+      <c r="Q47">
+        <v>440</v>
+      </c>
+      <c r="R47">
+        <v>1461544</v>
+      </c>
+      <c r="S47">
+        <v>405</v>
+      </c>
+      <c r="T47">
+        <v>1462963</v>
+      </c>
+      <c r="U47">
+        <v>422</v>
+      </c>
+      <c r="V47">
+        <v>1462963</v>
+      </c>
+      <c r="W47">
+        <v>413</v>
+      </c>
+      <c r="X47">
+        <v>1462963</v>
+      </c>
+      <c r="Y47">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -3332,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF35473-9742-4B22-9105-9EEFA5B1D1F2}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3383,7 +4102,7 @@
         <v>10951</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,10 +4119,10 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>19637</v>
+        <v>16426</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3420,10 +4139,10 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>85817</v>
+        <v>76587</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>657</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3440,10 +4159,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>239644</v>
+        <v>216426</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,10 +4179,10 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>704312</v>
+        <v>652769</v>
       </c>
       <c r="F6">
-        <v>59</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3480,10 +4199,10 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1462963</v>
+        <v>1402630</v>
       </c>
       <c r="F7">
-        <v>115</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -3503,7 +4222,7 @@
         <v>14854</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -3520,10 +4239,10 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>22004</v>
+        <v>20530</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3540,10 +4259,10 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>99511</v>
+        <v>89429</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3560,10 +4279,10 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>250810</v>
+        <v>234212</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3580,10 +4299,10 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>715844</v>
+        <v>680509</v>
       </c>
       <c r="F14">
-        <v>25</v>
+        <v>851</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3600,10 +4319,10 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>1564542</v>
+        <v>1477243</v>
       </c>
       <c r="F15">
-        <v>49</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3640,10 +4359,10 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>32421</v>
+        <v>30468</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3660,10 +4379,10 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>91996</v>
+        <v>84363</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3680,10 +4399,10 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>259252</v>
+        <v>245026</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -3700,10 +4419,10 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>743189</v>
+        <v>706192</v>
       </c>
       <c r="F22">
-        <v>14</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3720,25 +4439,13 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1537159</v>
+        <v>1465038</v>
       </c>
       <c r="F23">
-        <v>28</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDFBF50-F5CB-416B-BB19-A3D70E7A2640}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>